--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A94D2-24BB-45AF-99F0-4F7661DD3DB3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3D407-6E3C-4609-98F1-F170A35EC905}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
   <sheets>
     <sheet name="journal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t>Efface l'écran au fure et a mesure</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Création du MCD scores</t>
+  </si>
+  <si>
+    <t>Donées persistantes</t>
+  </si>
+  <si>
+    <t>Apprendre à faire des donées persistantes</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Création de la fonction log</t>
   </si>
 </sst>
 </file>
@@ -668,11 +686,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1245,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F32" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F35" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1594,19 +1612,106 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B32" s="11">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.375</v>
+      </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="6" t="str">
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
+        <v>6.944444444444442E-2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B34" s="11">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,7 +1723,7 @@
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G32</xm:sqref>
+          <xm:sqref>G2:G35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1695,21 +1800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEB7924ED8B1A24180D5ACE015F77795" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4568a5a6c2fa997ab6ebb40e0105d4f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04c9fcc8-6688-426c-a709-ab5d9d154b1b" xmlns:ns4="a1b92501-ed98-452d-b672-e3645125226c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ddf32da8d8ce642d47dc65b5fde44d1" ns3:_="" ns4:_="">
     <xsd:import namespace="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
@@ -1912,7 +2002,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2001114-AC85-4781-A30A-BEE39CA014C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
+    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -1929,29 +2053,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBA01F4-C232-4C39-99F0-6B4F3770E020}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2001114-AC85-4781-A30A-BEE39CA014C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
-    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C3D407-6E3C-4609-98F1-F170A35EC905}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94917E6F-5481-460F-9B89-6F6C96415260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
   <sheets>
     <sheet name="journal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -256,6 +256,30 @@
   </si>
   <si>
     <t>Création de la fonction log</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Sprint 4 et 5</t>
+  </si>
+  <si>
+    <t>mettre une variable dans une entrée de fonction avec texte</t>
+  </si>
+  <si>
+    <t>Refaire les log</t>
+  </si>
+  <si>
+    <t>Faire entrer 2 parrametres dans la fonction</t>
+  </si>
+  <si>
+    <t>création logs</t>
+  </si>
+  <si>
+    <t>maps dans un fichier externe</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas</t>
   </si>
 </sst>
 </file>
@@ -686,11 +710,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1269,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F35" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F41" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1671,7 +1695,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43905</v>
+        <v>43913</v>
       </c>
       <c r="B34" s="11">
         <v>5</v>
@@ -1699,19 +1723,195 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B35" s="11">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6" t="str">
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B36" s="11">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B37" s="11">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B38" s="11">
+        <v>5</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B39" s="11">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B40" s="11">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,7 +1923,7 @@
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G35</xm:sqref>
+          <xm:sqref>G2:G41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1800,6 +2000,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEB7924ED8B1A24180D5ACE015F77795" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4568a5a6c2fa997ab6ebb40e0105d4f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04c9fcc8-6688-426c-a709-ab5d9d154b1b" xmlns:ns4="a1b92501-ed98-452d-b672-e3645125226c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ddf32da8d8ce642d47dc65b5fde44d1" ns3:_="" ns4:_="">
     <xsd:import namespace="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
@@ -2002,12 +2208,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2018,6 +2218,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
+    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2001114-AC85-4781-A30A-BEE39CA014C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2036,23 +2253,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
-    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBA01F4-C232-4C39-99F0-6B4F3770E020}">
   <ds:schemaRefs>

--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94917E6F-5481-460F-9B89-6F6C96415260}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41B869-678B-4346-A8F0-5B17E8D9151C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
   <sheets>
     <sheet name="journal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -280,13 +280,79 @@
   </si>
   <si>
     <t>Ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Création sprint 6</t>
+  </si>
+  <si>
+    <t>Fonctionne enfin (map 1 de faite)</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>creation du Dossier_de_projet</t>
+  </si>
+  <si>
+    <t>Modification du format des maps</t>
+  </si>
+  <si>
+    <t>ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Création des fichier externes pour les maps 2-4</t>
+  </si>
+  <si>
+    <t>+ sysème pour eviter de mettre 2 fois la même case</t>
+  </si>
+  <si>
+    <t>Création des fichier externes pour les maps pour l'aide</t>
+  </si>
+  <si>
+    <t>ne fonctionnent pas</t>
+  </si>
+  <si>
+    <t>Remise à 0 du score entre les parties</t>
+  </si>
+  <si>
+    <t>Création de la fonction Scores</t>
+  </si>
+  <si>
+    <t>pas términé</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>Enregistrer un pseudo</t>
+  </si>
+  <si>
+    <t>Le jeu ne fonctionne plus</t>
+  </si>
+  <si>
+    <t>Résolution de probleme</t>
+  </si>
+  <si>
+    <t>Refaire</t>
+  </si>
+  <si>
+    <t>Résolu, problème : remise à 0 (ligne 173-179)</t>
+  </si>
+  <si>
+    <t>Scores</t>
+  </si>
+  <si>
+    <t>Affichage des scores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +372,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -710,11 +782,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1341,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F41" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F53" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1899,21 +1971,415 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="A41" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B41" s="11">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B42" s="11">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555525E-2</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B43" s="11">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>3.1250000000000021E-2</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B44" s="11">
+        <v>6</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B45" s="11">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B46" s="11">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B47" s="11">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B48" s="11">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B49" s="11">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6">
+        <f t="shared" si="2"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B50" s="11">
+        <v>6</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
+        <v>6.5972222222222099E-2</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B51" s="11">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B52" s="11">
+        <v>7</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.92013888888888884</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555469E-2</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B53" s="11">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <f t="shared" si="2"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="str">
+        <f t="shared" ref="F54" si="3">IF(AND(C54&lt;&gt;"",D54&lt;&gt;""),D54-C54-E54,"")</f>
         <v/>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1923,7 +2389,7 @@
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G41</xm:sqref>
+          <xm:sqref>G2:G54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41B869-678B-4346-A8F0-5B17E8D9151C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C79F75-B4A3-46D4-9472-20890E1902AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Affichage des scores</t>
+  </si>
+  <si>
+    <t>Sous dossiers</t>
+  </si>
+  <si>
+    <t>mettre les fichiers externes dans des sous dossiers</t>
   </si>
 </sst>
 </file>
@@ -782,11 +788,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1347,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F53" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F55" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2364,19 +2370,46 @@
       <c r="J53" s="9"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B54" s="11">
+        <v>7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6" t="str">
-        <f t="shared" ref="F54" si="3">IF(AND(C54&lt;&gt;"",D54&lt;&gt;""),D54-C54-E54,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="G54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2384,12 +2417,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AF49E40-2014-4455-88BE-36C521B69D17}">
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G54</xm:sqref>
+          <xm:sqref>G2:G55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2466,12 +2499,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FEB7924ED8B1A24180D5ACE015F77795" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="4568a5a6c2fa997ab6ebb40e0105d4f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="04c9fcc8-6688-426c-a709-ab5d9d154b1b" xmlns:ns4="a1b92501-ed98-452d-b672-e3645125226c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ddf32da8d8ce642d47dc65b5fde44d1" ns3:_="" ns4:_="">
     <xsd:import namespace="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
@@ -2674,6 +2701,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2684,23 +2717,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
-    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2001114-AC85-4781-A30A-BEE39CA014C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2719,6 +2735,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a1b92501-ed98-452d-b672-e3645125226c"/>
+    <ds:schemaRef ds:uri="04c9fcc8-6688-426c-a709-ab5d9d154b1b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBA01F4-C232-4C39-99F0-6B4F3770E020}">
   <ds:schemaRefs>

--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C79F75-B4A3-46D4-9472-20890E1902AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FFC8A-BF96-429B-A6F5-9495D5F8583E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>mettre les fichiers externes dans des sous dossiers</t>
+  </si>
+  <si>
+    <t>nouvelles maps (5 -12)</t>
+  </si>
+  <si>
+    <t>Nettoyage du code (commentaires et fonctions)</t>
   </si>
 </sst>
 </file>
@@ -788,11 +794,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,11 +2385,13 @@
       <c r="C54" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="F54" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>14</v>
@@ -2397,19 +2405,77 @@
       <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="A55" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B55" s="11">
+        <v>7</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.65277777777777779</v>
+      </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:F56" si="3">IF(AND(C55&lt;&gt;"",D55&lt;&gt;""),D55-C55-E55,"")</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B56" s="11">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6">
+        <f t="shared" ref="F56:F57" si="4">IF(AND(C56&lt;&gt;"",D56&lt;&gt;""),D56-C56-E56,"")</f>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2422,7 +2488,7 @@
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G55</xm:sqref>
+          <xm:sqref>G2:G57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105FFC8A-BF96-429B-A6F5-9495D5F8583E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257FE260-3B13-4A63-8CFD-78C2A2FF111D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
   <sheets>
     <sheet name="journal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -99,21 +99,12 @@
     <t>Brouillon</t>
   </si>
   <si>
-    <t>creation d'un brouillon</t>
-  </si>
-  <si>
     <t>Scénarios</t>
   </si>
   <si>
     <t>Création des scénarios</t>
   </si>
   <si>
-    <t>Git + Github</t>
-  </si>
-  <si>
-    <t>Instalation git + création dépôt github</t>
-  </si>
-  <si>
     <t>Balsamique</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>Balsamiq</t>
   </si>
   <si>
-    <t>Instalation Balsamiq</t>
-  </si>
-  <si>
     <t>Maquette</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Création du menu</t>
   </si>
   <si>
-    <t>Embelification du menu</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -180,12 +165,6 @@
     <t>Issues</t>
   </si>
   <si>
-    <t>Essayer de comprndre les issues</t>
-  </si>
-  <si>
-    <t>j'etais malade la semaine d'avant</t>
-  </si>
-  <si>
     <t>Continuer à créer la 1ère map</t>
   </si>
   <si>
@@ -219,48 +198,27 @@
     <t>Création 3ème map</t>
   </si>
   <si>
-    <t>Selection de maps aléatoire</t>
-  </si>
-  <si>
     <t>Commentaires</t>
   </si>
   <si>
     <t>Refaire les commentaires</t>
   </si>
   <si>
-    <t>Arret</t>
-  </si>
-  <si>
-    <t>Pouvoir arreter le jeu à tout moment</t>
-  </si>
-  <si>
     <t>Effacer</t>
   </si>
   <si>
-    <t>Efface l'écran au fure et a mesure</t>
-  </si>
-  <si>
     <t>MCD</t>
   </si>
   <si>
     <t>Création du MCD scores</t>
   </si>
   <si>
-    <t>Donées persistantes</t>
-  </si>
-  <si>
-    <t>Apprendre à faire des donées persistantes</t>
-  </si>
-  <si>
     <t>Log</t>
   </si>
   <si>
     <t>Création de la fonction log</t>
   </si>
   <si>
-    <t>Github</t>
-  </si>
-  <si>
     <t>Sprint 4 et 5</t>
   </si>
   <si>
@@ -270,9 +228,6 @@
     <t>Refaire les log</t>
   </si>
   <si>
-    <t>Faire entrer 2 parrametres dans la fonction</t>
-  </si>
-  <si>
     <t>création logs</t>
   </si>
   <si>
@@ -294,9 +249,6 @@
     <t>Doc</t>
   </si>
   <si>
-    <t>creation du Dossier_de_projet</t>
-  </si>
-  <si>
     <t>Modification du format des maps</t>
   </si>
   <si>
@@ -306,9 +258,6 @@
     <t>Création des fichier externes pour les maps 2-4</t>
   </si>
   <si>
-    <t>+ sysème pour eviter de mettre 2 fois la même case</t>
-  </si>
-  <si>
     <t>Création des fichier externes pour les maps pour l'aide</t>
   </si>
   <si>
@@ -321,9 +270,6 @@
     <t>Création de la fonction Scores</t>
   </si>
   <si>
-    <t>pas términé</t>
-  </si>
-  <si>
     <t>Authentification</t>
   </si>
   <si>
@@ -333,9 +279,6 @@
     <t>Le jeu ne fonctionne plus</t>
   </si>
   <si>
-    <t>Résolution de probleme</t>
-  </si>
-  <si>
     <t>Refaire</t>
   </si>
   <si>
@@ -358,6 +301,66 @@
   </si>
   <si>
     <t>Nettoyage du code (commentaires et fonctions)</t>
+  </si>
+  <si>
+    <t>Ecrire la documentation</t>
+  </si>
+  <si>
+    <t>Création d'un brouillon</t>
+  </si>
+  <si>
+    <t>Installation Balsamiq</t>
+  </si>
+  <si>
+    <t>Sélection de maps aléatoire</t>
+  </si>
+  <si>
+    <t>Essayer de comprendre les issues</t>
+  </si>
+  <si>
+    <t>Arrêt</t>
+  </si>
+  <si>
+    <t>Pouvoir arrêter le jeu à tout moment</t>
+  </si>
+  <si>
+    <t>Efface l'écran au fur et à mesure</t>
+  </si>
+  <si>
+    <t>Données persistantes</t>
+  </si>
+  <si>
+    <t>Apprendre à faire des données persistantes</t>
+  </si>
+  <si>
+    <t>Faire entrer 2 paramètres dans la fonction</t>
+  </si>
+  <si>
+    <t>Création du Dossier_de_projet</t>
+  </si>
+  <si>
+    <t>Résolution de problème</t>
+  </si>
+  <si>
+    <t>j'étais malade la semaine d'avant</t>
+  </si>
+  <si>
+    <t>+ système pour éviter de mettre 2 fois la même case</t>
+  </si>
+  <si>
+    <t>pas terminé</t>
+  </si>
+  <si>
+    <t>Embellir le menu</t>
+  </si>
+  <si>
+    <t>Git + GitHub</t>
+  </si>
+  <si>
+    <t>Installation git + création dépôt GitHub</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
@@ -794,11 +797,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J4" s="9"/>
     </row>
@@ -954,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -983,10 +986,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J6" s="9"/>
     </row>
@@ -1012,10 +1015,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J7" s="9"/>
     </row>
@@ -1041,10 +1044,10 @@
         <v>13</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -1070,10 +1073,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -1099,10 +1102,10 @@
         <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J10" s="9"/>
     </row>
@@ -1128,10 +1131,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="J11" s="9"/>
     </row>
@@ -1157,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -1186,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -1215,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J14" s="9"/>
     </row>
@@ -1244,10 +1247,10 @@
         <v>14</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J15" s="9"/>
     </row>
@@ -1273,10 +1276,10 @@
         <v>14</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16" s="9"/>
     </row>
@@ -1302,10 +1305,10 @@
         <v>14</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="J17" s="9"/>
     </row>
@@ -1331,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J18" s="9"/>
     </row>
@@ -1353,17 +1356,17 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F55" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F54" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J19" s="9"/>
     </row>
@@ -1389,10 +1392,10 @@
         <v>14</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J20" s="9"/>
     </row>
@@ -1418,10 +1421,10 @@
         <v>14</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J21" s="9"/>
     </row>
@@ -1447,10 +1450,10 @@
         <v>14</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -1476,10 +1479,10 @@
         <v>14</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J23" s="9"/>
     </row>
@@ -1505,10 +1508,10 @@
         <v>14</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="J24" s="9"/>
     </row>
@@ -1534,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J25" s="9"/>
     </row>
@@ -1563,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J26" s="9"/>
     </row>
@@ -1592,13 +1595,13 @@
         <v>14</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1623,13 +1626,13 @@
         <v>13</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,10 +1657,10 @@
         <v>14</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J29" s="9"/>
     </row>
@@ -1683,10 +1686,10 @@
         <v>14</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J30" s="9"/>
     </row>
@@ -1712,10 +1715,10 @@
         <v>14</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="J31" s="9"/>
     </row>
@@ -1741,10 +1744,10 @@
         <v>13</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="J32" s="9"/>
     </row>
@@ -1770,10 +1773,10 @@
         <v>14</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="J33" s="9"/>
     </row>
@@ -1799,10 +1802,10 @@
         <v>14</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J34" s="9"/>
     </row>
@@ -1828,10 +1831,10 @@
         <v>13</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J35" s="9"/>
     </row>
@@ -1857,10 +1860,10 @@
         <v>14</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J36" s="9"/>
     </row>
@@ -1886,10 +1889,10 @@
         <v>13</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J37" s="9"/>
     </row>
@@ -1915,10 +1918,10 @@
         <v>14</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J38" s="9"/>
     </row>
@@ -1944,10 +1947,10 @@
         <v>14</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J39" s="9"/>
     </row>
@@ -1973,13 +1976,13 @@
         <v>14</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2004,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J41" s="9"/>
     </row>
@@ -2033,13 +2036,13 @@
         <v>14</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2066,10 +2069,10 @@
         <v>13</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="J43" s="9"/>
     </row>
@@ -2095,13 +2098,13 @@
         <v>14</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2126,13 +2129,13 @@
         <v>14</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,13 +2160,13 @@
         <v>14</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2188,10 +2191,10 @@
         <v>14</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J47" s="9"/>
     </row>
@@ -2217,10 +2220,10 @@
         <v>14</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J48" s="9"/>
     </row>
@@ -2246,13 +2249,13 @@
         <v>14</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2277,13 +2280,13 @@
         <v>14</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2308,10 +2311,10 @@
         <v>14</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J51" s="9"/>
     </row>
@@ -2337,13 +2340,13 @@
         <v>14</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2368,10 +2371,10 @@
         <v>14</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="J53" s="9"/>
     </row>
@@ -2397,10 +2400,10 @@
         <v>14</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J54" s="9"/>
     </row>
@@ -2419,21 +2422,21 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
-        <f t="shared" ref="F55:F56" si="3">IF(AND(C55&lt;&gt;"",D55&lt;&gt;""),D55-C55-E55,"")</f>
+        <f t="shared" ref="F55:F58" si="3">IF(AND(C55&lt;&gt;"",D55&lt;&gt;""),D55-C55-E55,"")</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43928</v>
       </c>
@@ -2448,47 +2451,76 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
-        <f t="shared" ref="F56:F57" si="4">IF(AND(C56&lt;&gt;"",D56&lt;&gt;""),D56-C56-E56,"")</f>
+        <f t="shared" si="3"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B57" s="11">
+        <v>7</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.53125</v>
+      </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F57" s="6">
+        <f t="shared" si="3"/>
+        <v>0.18055555555555558</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AF49E40-2014-4455-88BE-36C521B69D17}">
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G57</xm:sqref>
+          <xm:sqref>G2:G58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2768,18 +2800,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2802,6 +2834,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBA01F4-C232-4C39-99F0-6B4F3770E020}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CEB0933-06C6-494D-829C-FF4F7BE0284B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2816,12 +2856,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FBA01F4-C232-4C39-99F0-6B4F3770E020}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doc/Journal de travail.xlsx
+++ b/Doc/Journal de travail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timothee\CLionProjects\Bataille-navale\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257FE260-3B13-4A63-8CFD-78C2A2FF111D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14392E65-6310-4EB5-A646-603FBA9E4E7B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CD79DA9-5221-4172-963D-ED5E747AE188}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -367,6 +367,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -482,6 +485,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,11 +803,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE54EA1-5D7B-45ED-AEBE-57CEB38716ED}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1362,7 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6">
-        <f t="shared" ref="F19:F54" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
+        <f t="shared" ref="F19:F58" si="2">IF(AND(C19&lt;&gt;"",D19&lt;&gt;""),D19-C19-E19,"")</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2422,7 +2428,7 @@
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
-        <f t="shared" ref="F55:F58" si="3">IF(AND(C55&lt;&gt;"",D55&lt;&gt;""),D55-C55-E55,"")</f>
+        <f t="shared" si="2"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="G55" s="5" t="s">
@@ -2451,7 +2457,7 @@
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="G56" s="5" t="s">
@@ -2480,7 +2486,7 @@
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -2495,19 +2501,65 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="A58" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B58" s="11">
+        <v>7</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="F58" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4722222222222154E-2</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B59" s="11">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6">
+        <f t="shared" ref="F59" si="3">IF(AND(C59&lt;&gt;"",D59&lt;&gt;""),D59-C59-E59,"")</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2515,12 +2567,12 @@
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3AF49E40-2014-4455-88BE-36C521B69D17}">
           <x14:formula1>
             <xm:f>listes!$2:$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G58</xm:sqref>
+          <xm:sqref>G2:G59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
